--- a/outputs/R_OUT - Area 20 MRP Releases 1978-2023.xlsx
+++ b/outputs/R_OUT - Area 20 MRP Releases 1978-2023.xlsx
@@ -67440,11 +67440,11 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>617688</v>
+        <v>633402</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NOCN07106</t>
+          <t>NOCN2390</t>
         </is>
       </c>
       <c r="C215">
@@ -67495,19 +67495,19 @@
         </is>
       </c>
       <c r="P215">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="Q215">
-        <v>2008</v>
+        <v>2024</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>2008/06</t>
+          <t>2024/05/26</t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>2008/06</t>
+          <t>2024/05/26</t>
         </is>
       </c>
       <c r="T215" t="inlineStr">
@@ -67676,7 +67676,7 @@
         </is>
       </c>
       <c r="BH215">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="BI215" t="inlineStr">
         <is>
@@ -67693,6 +67693,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="BL215" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
       <c r="BM215" t="inlineStr">
         <is>
           <t>P</t>
@@ -67703,11 +67708,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="BS215" t="inlineStr">
-        <is>
-          <t>RELEASE INFORMATION ESTIMATED.</t>
-        </is>
-      </c>
       <c r="BT215">
         <v>0</v>
       </c>
@@ -67721,16 +67721,16 @@
         <v>0</v>
       </c>
       <c r="BX215">
-        <v>500000</v>
+        <v>440000</v>
       </c>
       <c r="BY215">
         <v>0</v>
       </c>
       <c r="CB215">
-        <v>500000</v>
+        <v>440000</v>
       </c>
       <c r="CD215">
-        <v>500000</v>
+        <v>440000</v>
       </c>
       <c r="CE215">
         <v>0</v>
@@ -67743,11 +67743,11 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>633402</v>
+        <v>617688</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NOCN2390</t>
+          <t>NOCN07106</t>
         </is>
       </c>
       <c r="C216">
@@ -67798,19 +67798,19 @@
         </is>
       </c>
       <c r="P216">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="Q216">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2008/06</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2008/06</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
@@ -67979,7 +67979,7 @@
         </is>
       </c>
       <c r="BH216">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="BI216" t="inlineStr">
         <is>
@@ -67996,11 +67996,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="BL216" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
       <c r="BM216" t="inlineStr">
         <is>
           <t>P</t>
@@ -68011,6 +68006,11 @@
           <t>P</t>
         </is>
       </c>
+      <c r="BS216" t="inlineStr">
+        <is>
+          <t>RELEASE INFORMATION ESTIMATED.</t>
+        </is>
+      </c>
       <c r="BT216">
         <v>0</v>
       </c>
@@ -68024,16 +68024,16 @@
         <v>0</v>
       </c>
       <c r="BX216">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="BY216">
         <v>0</v>
       </c>
       <c r="CB216">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="CD216">
-        <v>440000</v>
+        <v>500000</v>
       </c>
       <c r="CE216">
         <v>0</v>
